--- a/Etudiants/Corentin/ClasseurMatériels.xlsx
+++ b/Etudiants/Corentin/ClasseurMatériels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CORENTIN1\Documents\GitHub\Systeme_Escape_Game_13emePorte\Etudiants\Corentin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF63C8C-FDAC-4FA5-B62F-088159206D00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152B39A7-4D49-47C0-A22F-936B1B0C9086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2F2686D2-DE02-46A1-93AD-45CFFE23ADDF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>matériels envoyés par Joshua</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Résistance(*2)</t>
+  </si>
+  <si>
+    <t>relai</t>
   </si>
 </sst>
 </file>
@@ -212,50 +215,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C262F3-5BAB-4A41-888F-2E99015EE85D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3086100" y="4695825"/>
-          <a:ext cx="4343399" cy="1914525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -281,7 +240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -325,7 +284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -369,7 +328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -378,6 +337,94 @@
         <a:xfrm>
           <a:off x="3076574" y="9894078"/>
           <a:ext cx="4219575" cy="1939105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>7531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5A1191-7D22-4353-8273-CA5D954B3924}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="11953875"/>
+          <a:ext cx="4772025" cy="2198281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1988820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23749</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F25E9EB7-D131-447E-8C6D-5E414D5F845C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086101" y="3693795"/>
+          <a:ext cx="3848100" cy="1949704"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -688,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745B1688-E8F7-4C85-8836-8B595877067F}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +801,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="201" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,6 +828,14 @@
         <v>4.99</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3.2</v>
+      </c>
+    </row>
     <row r="14" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -788,8 +843,8 @@
     </row>
     <row r="15" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B15" s="4">
-        <f>B8+B9+B10+B11+B12</f>
-        <v>26.490000000000002</v>
+        <f>B8+B9+B10+B11+B12+B13</f>
+        <v>29.09</v>
       </c>
     </row>
   </sheetData>
